--- a/res_cat/rugueux_Q2_.xlsx
+++ b/res_cat/rugueux_Q2_.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VictorRosi/Documents/GitHub/interview_analysis/corpus_lemm/xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VictorRosi/Documents/GitHub/interview_analysis/res_cat/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1340" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -760,7 +760,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1077,13 +1079,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1105,376 +1108,376 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1496,792 +1499,792 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
         <v>208</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="E65" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E66" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E67" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D367">
-    <sortCondition descending="1" ref="B1:B367"/>
+  <sortState ref="A2:E70">
+    <sortCondition ref="C2:C70"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C66 C68:C1048576">
       <formula1>$N$9:$N$19</formula1>
     </dataValidation>
   </dataValidations>
